--- a/generated/oliva2008.xlsx
+++ b/generated/oliva2008.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,55 +434,55 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Exemple</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Model</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>RC2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>RC3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Complexitat</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>RC2 posicions</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>RC3 posicions</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>ATATATATAT</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>WSWSWSWSWS</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -490,22 +490,25 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>ATATATATAT</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>WSWSWSWSWS</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -513,506 +516,563 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>ATATTAATAT</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>WSWSWSWSWS</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>TAATATATAT</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>WSWSWSWSWS</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>ATATATTAAT</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>WSWSWSWSWS</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>ATTAATATAT</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>WSWSWSWSWS</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>TAATATATAT</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>WSWSWSWSWS</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>ATATATTAAT</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>WSWSWSWSWS</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>ATTAATTAAT</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>WSWSWSWSWS</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr">
+      <c r="F10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>3, 7</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>TAATATTAAT</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>WSWSWSWSWS</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
+      <c r="F11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>1, 7</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>TAATATTAAT</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>WSWSWSWSWS</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
+      <c r="F12" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>1, 7</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>TAATTAATAT</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>WSWSWSWSWS</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
       </c>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr">
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>1, 5</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>TATAATATAT</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>WSWSWSWSWS</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
       </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr">
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>1, 3</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>ATATTATAAT</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>WSWSWSWSWS</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr">
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>5, 7</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>AATAATATAT</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>WSWSWSWSWS</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>ATATAATAAT</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>WSWSWSWSWS</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
-      </c>
-      <c r="F17" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>AATAATTAAT</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>WSWSWSWSWS</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" t="n">
         <v>3</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>3, 7</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>TAATTATAAT</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>WSWSWSWSWS</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
+      <c r="F19" t="n">
+        <v>3</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
         <is>
           <t>1, 5, 7</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>TAATAATAAT</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>WSWSWSWSWS</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
         <v>3</v>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>1, 7</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>TATAATTAAT</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>WSWSWSWSWS</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>WSWSWSWSWS</t>
+        </is>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
       </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr">
+      <c r="F21" t="n">
+        <v>3</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
         <is>
           <t>1, 3, 7</t>
         </is>

--- a/generated/oliva2008.xlsx
+++ b/generated/oliva2008.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -528,7 +528,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATATTAATAT</t>
+          <t>TAATATATAT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +548,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -558,7 +558,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TAATATATAT</t>
+          <t>ATATTAATAT</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +578,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATTAATTAAT</t>
+          <t>ATATAATAAT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -717,18 +717,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>2</v>
       </c>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>7</t>
         </is>
       </c>
     </row>
@@ -738,7 +742,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TAATATTAAT</t>
+          <t>AATAATATAT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -747,18 +751,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>2</v>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -768,7 +776,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>TAATATTAAT</t>
+          <t>TATAATATAT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -788,7 +796,7 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>1, 3</t>
         </is>
       </c>
     </row>
@@ -798,7 +806,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>TAATTAATAT</t>
+          <t>ATATTATAAT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -818,7 +826,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1, 5</t>
+          <t>5, 7</t>
         </is>
       </c>
     </row>
@@ -828,7 +836,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TATAATATAT</t>
+          <t>TAATATTAAT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -848,7 +856,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>1, 3</t>
+          <t>1, 7</t>
         </is>
       </c>
     </row>
@@ -858,7 +866,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ATATTATAAT</t>
+          <t>TAATTAATAT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -878,7 +886,7 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>5, 7</t>
+          <t>1, 5</t>
         </is>
       </c>
     </row>
@@ -888,7 +896,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AATAATATAT</t>
+          <t>ATTAATTAAT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -897,22 +905,18 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>3, 7</t>
         </is>
       </c>
     </row>
@@ -922,7 +926,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ATATAATAAT</t>
+          <t>TAATATTAAT</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -931,22 +935,18 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>2</v>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1, 7</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AATAATTAAT</t>
+          <t>TAATAATAAT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -975,12 +975,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>3, 7</t>
+          <t>1, 7</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>TAATTATAAT</t>
+          <t>AATAATTAAT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -999,18 +999,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
         <v>3</v>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1, 5, 7</t>
+          <t>3, 7</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1024,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TAATAATAAT</t>
+          <t>TAATTATAAT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1029,22 +1033,18 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>3</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>1, 7</t>
+          <t>1, 5, 7</t>
         </is>
       </c>
     </row>
